--- a/biology/Botanique/South_Bank_Parklands/South_Bank_Parklands.xlsx
+++ b/biology/Botanique/South_Bank_Parklands/South_Bank_Parklands.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les South Bank Parklands sont un ensemble d'espaces verts et d'aménagements urbains situés à Brisbane, sur la rive sud du fleuve Brisbane, face aux immeubles du centre financier (CBD). Réalisés peu après l'exposition universelle de 1988, ils couvrent une superficie de 17 hectares et s'intègrent à un quartier moderne comprenant institutions culturelles, restaurants, cafés et boutiques. 
@@ -514,7 +526,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le site de South Bank fut longtemps occupé par les tribus aborigènes Turrbal et Yuggera, avant que le lieu ne soit choisi par les Européens afin d'y établir la colonie pénale de Brisbane. Après la fermeture du centre pénitentiaire en 1839, des colons libres vinrent développer une petite agglomération à South Bank, mais des inondations survenues en 1893 contraignirent les colons à déplacer le centre de gravité de la ville sur la rive nord, où se situe encore le quartier des affaires (CBD). Ainsi commença le déclin du quartier, qui trouva cependant à se reconvertir en centre industriel.
 Au début des années 1970, la municipalité décida de lancer une reconversion partielle du quartier, où fut édifié le Queensland Cultural Center, important pôle artistique et culturel qui comprend notamment un musée (Queensland Museum), une bibliothèque d'état (State Library of Queensland), une salle de concert (Queensland Performing Arts Centre) et une galerie d'art (Queensland Art Gallery), complétée depuis peu par une galerie d'art moderne (Queensland Gallery of Modern Art).
@@ -547,7 +561,9 @@
           <t>Attractions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le Grand Arbour est une voie de promenade. Entièrement couverte de tonnelles où viennent s'accrocher des bougainvillées, elle s'étend sur près d'un kilomètre. La nuit, elle est dotée d'un système d'éclairage conçu pour mettre en valeur la végétation et donner au lieu une atmosphère intime. Aménagée de 1997 à 1999, puis étendue plus tard, elle est l'œuvre du cabinet Denton Corker Marshall.
 La Pagode de la Paix fut érigée en 1988 dans le cadre de l'exposition universelle de Brisbane. Ancien pavillon du Népal, elle fut offerte à la ville à l'issue de la manifestation, et fut installée au cœur des South Bank Parklands quelques années plus tard.
@@ -582,7 +598,9 @@
           <t>Accès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Piétons et cyclistes
 Les espaces verts sont accessibles pour les piétons via Vulture Street, Little Stanley Street et Cultural Forecourt; depuis la rive gauche du fleuve, par Victoria Bridge (depuis le centre-ville) et le Goodwill Bridge (depuis Gardens Point); enfin, depuis Kangaroo Point via le Riverwalk.
